--- a/Data/EC/NIT-9013372120.xlsx
+++ b/Data/EC/NIT-9013372120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6C5B97-61BB-402B-B1B1-D350C76F6319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5A89CA-4EDF-4778-8BF8-C7EC4CAEBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D424B705-98F6-47DE-9DCF-187C48F43BE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7BFF7D1-E583-47F6-85D9-FA363E2A7012}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,39 +65,168 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73190891</t>
+  </si>
+  <si>
+    <t>GALY ARMANDO ACOSTA TORRES</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>8852165</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ARNEDO PEREZ</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>73572693</t>
+  </si>
+  <si>
+    <t>ELDER JESUS OTERO RUIZ</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>73593976</t>
+  </si>
+  <si>
+    <t>SAMI EDUARDO ESPINOZA BATISTA</t>
+  </si>
+  <si>
+    <t>1046306271</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE PALACIO VARGAS</t>
+  </si>
+  <si>
     <t>1002077005</t>
   </si>
   <si>
     <t>DANIEL JOSE PAJARO PAEZ</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>1046306271</t>
-  </si>
-  <si>
-    <t>LUIS FELIPE PALACIO VARGAS</t>
-  </si>
-  <si>
-    <t>73593976</t>
-  </si>
-  <si>
-    <t>SAMI EDUARDO ESPINOZA BATISTA</t>
-  </si>
-  <si>
-    <t>8852165</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL ARNEDO PEREZ</t>
-  </si>
-  <si>
     <t>1002322860</t>
   </si>
   <si>
     <t>SARA INES GARCIA NAVARRO</t>
   </si>
   <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
@@ -107,9 +236,6 @@
     <t>DEINIS JOSE MONTES MARIMON</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>20281200</t>
   </si>
   <si>
@@ -122,136 +248,10 @@
     <t>MIGUEL ENRIQUE TERAN CIPRIAN</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>1049946328</t>
   </si>
   <si>
     <t>GEINER DAVID ESTREMOR DIAZ</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>73190891</t>
-  </si>
-  <si>
-    <t>GALY ARMANDO ACOSTA TORRES</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>73572693</t>
-  </si>
-  <si>
-    <t>ELDER JESUS OTERO RUIZ</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3902BC2-614D-2392-8A85-4D4689E3883A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8408D5-E3F4-96DC-6A20-8555C9260B40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D8F66E-B03D-4F9D-AE3D-AF2233A9AC7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2CB468-1561-400B-B5A2-8E9AF29E619B}">
   <dimension ref="B2:J123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1194,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1170</v>
+        <v>26650</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1214,13 +1214,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>14045</v>
+        <v>8400</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>900000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1231,19 +1231,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>14400</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,19 +1254,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>8400</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1277,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F20" s="18">
-        <v>9363</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1300,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>30430</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>14400</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>900000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1346,19 +1346,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
-        <v>29260</v>
+        <v>14045</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
-        <v>8193</v>
+        <v>1170</v>
       </c>
       <c r="G24" s="18">
         <v>877803</v>
@@ -1392,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1415,16 +1415,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>24578</v>
+        <v>35112</v>
       </c>
       <c r="G26" s="18">
         <v>877803</v>
@@ -1438,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1484,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1530,10 +1530,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>31</v>
@@ -1553,10 +1553,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
@@ -1576,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F33" s="18">
-        <v>26650</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1599,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1622,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1645,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1668,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1691,13 +1691,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1714,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1737,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1760,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1783,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1806,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1829,13 +1829,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1852,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1875,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1898,13 +1898,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1921,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1944,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1967,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1990,13 +1990,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2013,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2036,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2059,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2082,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2105,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2128,13 +2128,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2151,13 +2151,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2174,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2197,13 +2197,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2220,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2243,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2266,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2289,16 +2289,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
-        <v>35112</v>
+        <v>9363</v>
       </c>
       <c r="G64" s="18">
         <v>877803</v>
@@ -2312,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2335,16 +2335,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
-        <v>35112</v>
+        <v>30430</v>
       </c>
       <c r="G66" s="18">
         <v>877803</v>
@@ -2358,16 +2358,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>35112</v>
+        <v>29260</v>
       </c>
       <c r="G67" s="18">
         <v>877803</v>
@@ -2381,13 +2381,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2404,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2427,13 +2427,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2450,13 +2450,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F71" s="18">
         <v>35112</v>
@@ -2473,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F72" s="18">
         <v>35112</v>
@@ -2496,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
@@ -2519,13 +2519,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F74" s="18">
         <v>35112</v>
@@ -2542,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F75" s="18">
         <v>35112</v>
@@ -2565,13 +2565,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>35112</v>
@@ -2588,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F77" s="18">
         <v>35112</v>
@@ -2611,13 +2611,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F78" s="18">
         <v>35112</v>
@@ -2634,16 +2634,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F79" s="18">
-        <v>35112</v>
+        <v>8193</v>
       </c>
       <c r="G79" s="18">
         <v>877803</v>
@@ -2657,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F80" s="18">
         <v>35112</v>
@@ -2680,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F81" s="18">
         <v>35112</v>
@@ -2703,13 +2703,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F82" s="18">
         <v>35112</v>
@@ -2726,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F83" s="18">
         <v>35112</v>
@@ -2749,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F84" s="18">
         <v>35112</v>
@@ -2772,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D85" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F85" s="18">
         <v>35112</v>
@@ -2795,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F86" s="18">
         <v>35112</v>
@@ -2818,13 +2818,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F87" s="18">
         <v>35112</v>
@@ -2841,13 +2841,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F88" s="18">
         <v>35112</v>
@@ -2864,13 +2864,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F89" s="18">
         <v>35112</v>
@@ -2887,13 +2887,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F90" s="18">
         <v>35112</v>
@@ -2910,13 +2910,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F91" s="18">
         <v>35112</v>
@@ -2933,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F92" s="18">
         <v>35112</v>
@@ -2956,13 +2956,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F93" s="18">
         <v>35112</v>
@@ -2979,13 +2979,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F94" s="18">
         <v>35112</v>
@@ -3002,13 +3002,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F95" s="18">
         <v>35112</v>
@@ -3025,13 +3025,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F96" s="18">
         <v>35112</v>
@@ -3048,13 +3048,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F97" s="18">
         <v>35112</v>
@@ -3071,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
         <v>35112</v>
@@ -3094,13 +3094,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F99" s="18">
         <v>35112</v>
@@ -3117,13 +3117,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F100" s="18">
         <v>35112</v>
@@ -3140,13 +3140,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F101" s="18">
         <v>35112</v>
@@ -3163,13 +3163,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F102" s="18">
         <v>35112</v>
@@ -3186,13 +3186,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F103" s="18">
         <v>35112</v>
@@ -3209,13 +3209,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F104" s="18">
         <v>35112</v>
@@ -3232,13 +3232,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F105" s="18">
         <v>35112</v>
@@ -3255,13 +3255,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F106" s="18">
         <v>35112</v>
@@ -3278,19 +3278,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F107" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G107" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3301,13 +3301,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F108" s="18">
         <v>35112</v>
@@ -3324,13 +3324,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F109" s="18">
         <v>35112</v>
@@ -3347,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F110" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G110" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3370,13 +3370,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F111" s="18">
         <v>35112</v>
@@ -3393,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F112" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G112" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3416,13 +3416,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F113" s="18">
         <v>35112</v>
@@ -3439,13 +3439,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F114" s="18">
         <v>35112</v>
@@ -3462,19 +3462,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F115" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G115" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3485,13 +3485,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F116" s="18">
         <v>35112</v>
@@ -3508,16 +3508,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F117" s="24">
-        <v>35112</v>
+        <v>24578</v>
       </c>
       <c r="G117" s="24">
         <v>877803</v>

--- a/Data/EC/NIT-9013372120.xlsx
+++ b/Data/EC/NIT-9013372120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5A89CA-4EDF-4778-8BF8-C7EC4CAEBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2D0C49-7FC6-46CB-954D-5BDC5EF822D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7BFF7D1-E583-47F6-85D9-FA363E2A7012}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C20D3995-3FE7-4B12-9877-C62E44F3B8B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,75 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8852165</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ARNEDO PEREZ</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>73593976</t>
+  </si>
+  <si>
+    <t>SAMI EDUARDO ESPINOZA BATISTA</t>
+  </si>
+  <si>
+    <t>1046306271</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE PALACIO VARGAS</t>
+  </si>
+  <si>
+    <t>1002077005</t>
+  </si>
+  <si>
+    <t>DANIEL JOSE PAJARO PAEZ</t>
+  </si>
+  <si>
+    <t>1002322860</t>
+  </si>
+  <si>
+    <t>SARA INES GARCIA NAVARRO</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1002323928</t>
+  </si>
+  <si>
+    <t>DEINIS JOSE MONTES MARIMON</t>
+  </si>
+  <si>
+    <t>20281200</t>
+  </si>
+  <si>
+    <t>AIZAR DAVID QUESSEP JARABA</t>
+  </si>
+  <si>
+    <t>1049936596</t>
+  </si>
+  <si>
+    <t>MIGUEL ENRIQUE TERAN CIPRIAN</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1049946328</t>
+  </si>
+  <si>
+    <t>GEINER DAVID ESTREMOR DIAZ</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>73190891</t>
   </si>
   <si>
@@ -74,13 +143,97 @@
     <t>2102</t>
   </si>
   <si>
-    <t>8852165</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL ARNEDO PEREZ</t>
-  </si>
-  <si>
-    <t>2009</t>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
   </si>
   <si>
     <t>73572693</t>
@@ -89,169 +242,16 @@
     <t>ELDER JESUS OTERO RUIZ</t>
   </si>
   <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>73593976</t>
-  </si>
-  <si>
-    <t>SAMI EDUARDO ESPINOZA BATISTA</t>
-  </si>
-  <si>
-    <t>1046306271</t>
-  </si>
-  <si>
-    <t>LUIS FELIPE PALACIO VARGAS</t>
-  </si>
-  <si>
-    <t>1002077005</t>
-  </si>
-  <si>
-    <t>DANIEL JOSE PAJARO PAEZ</t>
-  </si>
-  <si>
-    <t>1002322860</t>
-  </si>
-  <si>
-    <t>SARA INES GARCIA NAVARRO</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1002323928</t>
-  </si>
-  <si>
-    <t>DEINIS JOSE MONTES MARIMON</t>
-  </si>
-  <si>
-    <t>20281200</t>
-  </si>
-  <si>
-    <t>AIZAR DAVID QUESSEP JARABA</t>
-  </si>
-  <si>
-    <t>1049936596</t>
-  </si>
-  <si>
-    <t>MIGUEL ENRIQUE TERAN CIPRIAN</t>
-  </si>
-  <si>
-    <t>1049946328</t>
-  </si>
-  <si>
-    <t>GEINER DAVID ESTREMOR DIAZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -350,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8408D5-E3F4-96DC-6A20-8555C9260B40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848B0C5B-E07B-EEE4-308B-1764F029C145}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2CB468-1561-400B-B5A2-8E9AF29E619B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2230B94-9F46-4F4D-9795-F94541F4F49D}">
   <dimension ref="B2:J123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1194,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26650</v>
+        <v>8400</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1214,10 +1214,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>8400</v>
+        <v>14400</v>
       </c>
       <c r="G17" s="18">
         <v>900000</v>
@@ -1231,19 +1231,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>14045</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,19 +1254,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>1170</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1277,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>9363</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1300,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F22" s="18">
-        <v>14400</v>
+        <v>30430</v>
       </c>
       <c r="G22" s="18">
-        <v>900000</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1346,19 +1346,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>14045</v>
+        <v>29260</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>1170</v>
+        <v>8193</v>
       </c>
       <c r="G24" s="18">
         <v>877803</v>
@@ -1392,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1415,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1438,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1461,16 +1461,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F28" s="18">
-        <v>35112</v>
+        <v>24578</v>
       </c>
       <c r="G28" s="18">
         <v>877803</v>
@@ -1484,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1530,10 +1530,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>31</v>
@@ -1553,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
-        <v>35112</v>
+        <v>26650</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1576,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1599,10 +1599,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>34</v>
@@ -1622,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1645,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1668,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1691,13 +1691,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1714,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1737,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E40" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1760,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1783,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1806,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E43" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1829,13 +1829,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1852,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1875,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E46" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1898,13 +1898,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1921,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1944,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1967,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1990,13 +1990,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2013,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2036,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2059,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2082,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E55" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2105,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2128,13 +2128,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2151,13 +2151,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E58" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2174,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2197,13 +2197,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2220,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2243,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2266,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2289,16 +2289,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F64" s="18">
-        <v>9363</v>
+        <v>35112</v>
       </c>
       <c r="G64" s="18">
         <v>877803</v>
@@ -2312,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2335,16 +2335,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F66" s="18">
-        <v>30430</v>
+        <v>35112</v>
       </c>
       <c r="G66" s="18">
         <v>877803</v>
@@ -2358,16 +2358,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F67" s="18">
-        <v>29260</v>
+        <v>35112</v>
       </c>
       <c r="G67" s="18">
         <v>877803</v>
@@ -2381,13 +2381,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2404,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2427,13 +2427,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2450,13 +2450,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F71" s="18">
         <v>35112</v>
@@ -2473,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F72" s="18">
         <v>35112</v>
@@ -2496,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
@@ -2519,13 +2519,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F74" s="18">
         <v>35112</v>
@@ -2542,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F75" s="18">
         <v>35112</v>
@@ -2565,13 +2565,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F76" s="18">
         <v>35112</v>
@@ -2588,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F77" s="18">
         <v>35112</v>
@@ -2611,13 +2611,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F78" s="18">
         <v>35112</v>
@@ -2634,16 +2634,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F79" s="18">
-        <v>8193</v>
+        <v>35112</v>
       </c>
       <c r="G79" s="18">
         <v>877803</v>
@@ -2657,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F80" s="18">
         <v>35112</v>
@@ -2680,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F81" s="18">
         <v>35112</v>
@@ -2703,13 +2703,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F82" s="18">
         <v>35112</v>
@@ -2726,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F83" s="18">
         <v>35112</v>
@@ -2749,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F84" s="18">
         <v>35112</v>
@@ -2772,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F85" s="18">
         <v>35112</v>
@@ -2795,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F86" s="18">
         <v>35112</v>
@@ -2818,13 +2818,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F87" s="18">
         <v>35112</v>
@@ -2841,13 +2841,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F88" s="18">
         <v>35112</v>
@@ -2864,13 +2864,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F89" s="18">
         <v>35112</v>
@@ -2887,13 +2887,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F90" s="18">
         <v>35112</v>
@@ -2910,13 +2910,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F91" s="18">
         <v>35112</v>
@@ -2933,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F92" s="18">
         <v>35112</v>
@@ -2956,13 +2956,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F93" s="18">
         <v>35112</v>
@@ -2979,13 +2979,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F94" s="18">
         <v>35112</v>
@@ -3002,13 +3002,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F95" s="18">
         <v>35112</v>
@@ -3025,13 +3025,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F96" s="18">
         <v>35112</v>
@@ -3048,13 +3048,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F97" s="18">
         <v>35112</v>
@@ -3071,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F98" s="18">
         <v>35112</v>
@@ -3094,13 +3094,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F99" s="18">
         <v>35112</v>
@@ -3117,13 +3117,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F100" s="18">
         <v>35112</v>
@@ -3140,13 +3140,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F101" s="18">
         <v>35112</v>
@@ -3163,13 +3163,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F102" s="18">
         <v>35112</v>
@@ -3186,13 +3186,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F103" s="18">
         <v>35112</v>
@@ -3209,13 +3209,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F104" s="18">
         <v>35112</v>
@@ -3232,13 +3232,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F105" s="18">
         <v>35112</v>
@@ -3255,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F106" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G106" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3278,13 +3278,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F107" s="18">
         <v>35112</v>
@@ -3301,13 +3301,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F108" s="18">
         <v>35112</v>
@@ -3324,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F109" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G109" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3347,13 +3347,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F110" s="18">
         <v>35112</v>
@@ -3370,13 +3370,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F111" s="18">
         <v>35112</v>
@@ -3393,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D112" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F112" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G112" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3416,13 +3416,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="F113" s="18">
         <v>35112</v>
@@ -3439,13 +3439,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="F114" s="18">
         <v>35112</v>
@@ -3462,19 +3462,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D115" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F115" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G115" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3485,13 +3485,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D116" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="F116" s="18">
         <v>35112</v>
@@ -3508,16 +3508,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D117" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E117" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="F117" s="24">
-        <v>24578</v>
+        <v>35112</v>
       </c>
       <c r="G117" s="24">
         <v>877803</v>
